--- a/files/Graphcreation.xlsx
+++ b/files/Graphcreation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IOTProgramming\ad_ADT3Dimension\ADT3Dimension\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9887338-964C-4221-B2DF-C54E0C29D835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B73C94-0819-47D0-8303-A8A588880DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6240" yWindow="10650" windowWidth="28800" windowHeight="15210" xr2:uid="{B6154E4F-774F-4730-84F3-5195ADBCD94E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>ModelID</t>
   </si>
@@ -106,19 +106,16 @@
     <t>dtmi:energyproducer:Generator;1</t>
   </si>
   <si>
-    <t>{"inProduction": 100, "height": 120, "location":"NorthSea"}</t>
-  </si>
-  <si>
-    <t>{"structuralOK": 100, "vibration": 10}</t>
-  </si>
-  <si>
-    <t>{"vibration": 10, "powerproduction": 300, "yawmotion":42}</t>
-  </si>
-  <si>
-    <t>{"vibration": 10, "error": 0}</t>
-  </si>
-  <si>
-    <t>{"structuralOK": 100, "vibration": 20}</t>
+    <t>{"ProductionIndex": 100, "height": 120, "location":"NorthSea", "StructuralIntegrity":100}</t>
+  </si>
+  <si>
+    <t>{"structuralIntegrity": 100}</t>
+  </si>
+  <si>
+    <t>{"structuralIntegrity": 100, "powerproduction": 300}</t>
+  </si>
+  <si>
+    <t>{"position": 10, "errorCode": 0}</t>
   </si>
 </sst>
 </file>
@@ -479,7 +476,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,7 +598,7 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -618,7 +615,7 @@
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -635,7 +632,7 @@
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
